--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C50A5C06-88DB-4334-AB9E-2ED81F4DB155}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD1AD4-09D5-4DD3-8D78-E90B49FE98E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16635" yWindow="1890" windowWidth="11445" windowHeight="11385" firstSheet="6" activeTab="7" xr2:uid="{3124F14D-1D85-4D6D-9F18-A56BB2808C18}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
   <si>
     <t>order_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -242,17 +242,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shipping_day</t>
-  </si>
-  <si>
     <t>模式名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>船期</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>bg_price</t>
   </si>
   <si>
@@ -366,6 +359,30 @@
   </si>
   <si>
     <t>订单ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_code</t>
+  </si>
+  <si>
+    <t>邮编</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>telephone</t>
+  </si>
+  <si>
+    <t>rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax_rate</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -862,10 +879,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6322D14F-47C3-4C89-A167-B779A2E31346}">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -906,173 +923,183 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" t="s">
         <v>19</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B5" t="s">
         <v>18</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s">
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B7" t="s">
         <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>18</v>
       </c>
       <c r="C9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
         <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B11" t="s">
         <v>18</v>
       </c>
       <c r="C11" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
         <v>16</v>
       </c>
       <c r="C13" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D13" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B14" t="s">
         <v>16</v>
       </c>
       <c r="C14" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="C15" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
         <v>18</v>
       </c>
       <c r="C16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B17" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
       </c>
       <c r="C18" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -1087,7 +1114,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1122,19 +1149,11 @@
         <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
-        <v>54</v>
-      </c>
+      <c r="A4" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1145,10 +1164,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5744483-A4F3-4FC1-A008-3A4277755531}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A4"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1192,6 +1211,17 @@
       </c>
       <c r="C4" t="s">
         <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>86</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -1203,13 +1233,16 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3252C25C-2ECE-4768-B369-3465190F04CD}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="A5" sqref="A5:A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
@@ -1252,9 +1285,35 @@
         <v>48</v>
       </c>
     </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1367,7 +1426,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>19</v>
@@ -1378,7 +1437,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>19</v>
@@ -1420,7 +1479,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -1474,7 +1533,7 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1516,13 +1575,13 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -1583,5 +1642,6 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/数据表.xlsx
+++ b/数据表.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WorkSpace\ship\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAD1AD4-09D5-4DD3-8D78-E90B49FE98E1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E59AD245-8F9D-480E-8044-37011070DF62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16635" yWindow="1890" windowWidth="11445" windowHeight="11385" firstSheet="6" activeTab="7" xr2:uid="{3124F14D-1D85-4D6D-9F18-A56BB2808C18}"/>
+    <workbookView xWindow="1995" yWindow="1305" windowWidth="11445" windowHeight="11385" firstSheet="5" activeTab="6" xr2:uid="{3124F14D-1D85-4D6D-9F18-A56BB2808C18}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="99">
   <si>
     <t>order_list</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -383,6 +383,28 @@
   </si>
   <si>
     <t>tax_rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0-已删除;1-已完成;2-已注销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>update_time</t>
+  </si>
+  <si>
+    <t>状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>更新时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1377,18 +1399,18 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8EC4CB5-423A-4F77-8A41-D36369E9E400}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="22.125" style="3" customWidth="1"/>
     <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="3" width="12.875" style="3" customWidth="1"/>
-    <col min="4" max="4" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="18.875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="26.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
@@ -1475,7 +1497,7 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
       <c r="D8" t="s">
@@ -1519,6 +1541,31 @@
       </c>
       <c r="D11" t="s">
         <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>98</v>
       </c>
     </row>
   </sheetData>
@@ -1532,8 +1579,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77E5FCD0-87E1-4C09-A411-604647549A7C}">
   <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
